--- a/po_analysis_by_asin/B0BZHCQ6PF_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZHCQ6PF_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,169 +452,369 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>2490</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>5010</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1080</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1650</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>2820</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45334</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2640</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45341</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1560</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>2790</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45362</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>1730</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45369</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>2120</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45411</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>780</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45439</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>480</v>
+        <v>710</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45446</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>2800</v>
+        <v>670</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45453</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>830</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45474</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>680</v>
+        <v>900</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45481</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45488</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>460</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45495</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>1640</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45579</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>1320</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45593</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>1240</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45607</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B22" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B47" t="n">
         <v>1220</v>
       </c>
     </row>
@@ -629,7 +829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,65 +851,137 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>10230</v>
+        <v>760</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>7020</v>
+        <v>860</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>6640</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1260</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>2840</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>3360</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45566</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>2560</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45597</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10230</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6640</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B18" t="n">
         <v>1220</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BZHCQ6PF_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZHCQ6PF_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>230</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -511,7 +511,7 @@
         <v>45095.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>270</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10">
@@ -532,289 +532,249 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45116.99999999999</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>430</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>710</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>670</v>
+        <v>900</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>830</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>900</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45172.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>1170</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45179.99999999999</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>400</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45207.99999999999</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>420</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45228.99999999999</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>530</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45263.99999999999</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>250</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45270.99999999999</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>630</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45277.99999999999</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>1160</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45298.99999999999</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>2490</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45312.99999999999</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>5010</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45319.99999999999</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>1080</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45326.99999999999</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>1650</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45333.99999999999</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>2820</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45340.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>2640</v>
+        <v>780</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45347.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>1560</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>2790</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>1730</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>2120</v>
+        <v>680</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>780</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>480</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>2800</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>40</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>680</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45494.99999999999</v>
-      </c>
-      <c r="B43" t="n">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>45501.99999999999</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>45585.99999999999</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>45599.99999999999</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45613.99999999999</v>
-      </c>
-      <c r="B47" t="n">
         <v>1220</v>
       </c>
     </row>
@@ -829,7 +789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -870,7 +830,7 @@
         <v>45107.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1240</v>
+        <v>970</v>
       </c>
     </row>
     <row r="5">
@@ -878,7 +838,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>2640</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="6">
@@ -939,49 +899,41 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>6640</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45443.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>1260</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>2840</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45504.99999999999</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>3360</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45596.99999999999</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45626.99999999999</v>
-      </c>
-      <c r="B18" t="n">
         <v>1220</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BZHCQ6PF_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZHCQ6PF_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -805,7 +806,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -935,6 +936,733 @@
       </c>
       <c r="B17" t="n">
         <v>1220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>387</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-798.6293822339636</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1551.400806297615</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>418</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-700.2021165632212</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1593.542619226176</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>434</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-698.7770731242231</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1695.01683118264</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>449</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-745.5169950668676</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1696.799713229344</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>465</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-721.2198666148871</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1567.952316856707</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>481</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-761.8876991351958</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1640.609052114338</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>512</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-720.2692119819717</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1631.8493179123</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>528</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-659.8596754552813</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1680.060909520509</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>543</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-597.6258520057889</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1696.780504689848</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>559</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-589.8019638023063</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1721.085149268527</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>590</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-535.5977978940734</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1717.572959055443</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>622</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-552.3352765625763</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1782.389930911799</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>637</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-527.5371134771304</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1854.33259916792</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>653</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-549.7928782102216</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1892.714336339296</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>700</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-498.1770960548546</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1840.761390149699</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>716</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-439.3413684617729</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1894.444409186503</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>763</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-436.3558299955432</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1953.595628714323</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>778</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-472.0487298613351</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1918.84688780884</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>810</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-380.0397804217156</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2039.543423888914</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>825</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-274.8470340821949</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2002.807131539005</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>904</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-297.9893707824098</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2110.525780365101</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>919</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-330.7529839421145</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2186.822045832304</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>935</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-291.7640996144528</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2052.028887756309</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>982</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-264.5399778220923</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2248.079922640864</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1013</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-167.2895076339827</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2153.783564261344</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1029</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-205.0344720615607</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2200.154585881031</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1045</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-87.20661232785304</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2222.767845681699</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1060</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-189.7301637737038</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2291.262906912455</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1076</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-140.5081595095018</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2189.041171659709</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1092</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-73.56573006288451</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2167.566010471062</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1248</v>
+      </c>
+      <c r="C32" t="n">
+        <v>58.35219753331198</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2479.529198646418</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1310</v>
+      </c>
+      <c r="C33" t="n">
+        <v>187.40071793926</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2556.941094270876</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1326</v>
+      </c>
+      <c r="C34" t="n">
+        <v>145.6540288378479</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2506.634151022301</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1341</v>
+      </c>
+      <c r="C35" t="n">
+        <v>192.7501080314793</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2488.129343979892</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1388</v>
+      </c>
+      <c r="C36" t="n">
+        <v>274.6299040233379</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2580.485654188221</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1404</v>
+      </c>
+      <c r="C37" t="n">
+        <v>190.5993138662529</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2621.639460482415</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1419</v>
+      </c>
+      <c r="C38" t="n">
+        <v>255.6076049487691</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2623.370875414723</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1435</v>
+      </c>
+      <c r="C39" t="n">
+        <v>278.2330286704495</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2594.952817284706</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1622</v>
+      </c>
+      <c r="C40" t="n">
+        <v>467.5923805782527</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2857.097620684582</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1654</v>
+      </c>
+      <c r="C41" t="n">
+        <v>464.2780325035035</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2865.551284928545</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1685</v>
+      </c>
+      <c r="C42" t="n">
+        <v>468.0321383331052</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2849.571089929602</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C43" t="n">
+        <v>489.9516229804909</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2951.494481923686</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1716</v>
+      </c>
+      <c r="C44" t="n">
+        <v>555.8234793178901</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2854.569590156489</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1732</v>
+      </c>
+      <c r="C45" t="n">
+        <v>472.6633471411058</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2944.281590167745</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1747</v>
+      </c>
+      <c r="C46" t="n">
+        <v>615.501036983047</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2902.066741142262</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1763</v>
+      </c>
+      <c r="C47" t="n">
+        <v>561.5449850820019</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2911.122980101627</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1779</v>
+      </c>
+      <c r="C48" t="n">
+        <v>567.9100487896283</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2889.664880704264</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1794</v>
+      </c>
+      <c r="C49" t="n">
+        <v>576.4865395978796</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2993.936559037046</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1810</v>
+      </c>
+      <c r="C50" t="n">
+        <v>591.3628818249186</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2964.561149508793</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BZHCQ6PF_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZHCQ6PF_po_data.xlsx
@@ -949,7 +949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,16 +968,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -986,12 +976,6 @@
       <c r="B2" t="n">
         <v>387</v>
       </c>
-      <c r="C2" t="n">
-        <v>-798.6293822339636</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1551.400806297615</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1000,12 +984,6 @@
       <c r="B3" t="n">
         <v>418</v>
       </c>
-      <c r="C3" t="n">
-        <v>-700.2021165632212</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1593.542619226176</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1014,12 +992,6 @@
       <c r="B4" t="n">
         <v>434</v>
       </c>
-      <c r="C4" t="n">
-        <v>-698.7770731242231</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1695.01683118264</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1028,12 +1000,6 @@
       <c r="B5" t="n">
         <v>449</v>
       </c>
-      <c r="C5" t="n">
-        <v>-745.5169950668676</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1696.799713229344</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1042,12 +1008,6 @@
       <c r="B6" t="n">
         <v>465</v>
       </c>
-      <c r="C6" t="n">
-        <v>-721.2198666148871</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1567.952316856707</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1056,12 +1016,6 @@
       <c r="B7" t="n">
         <v>481</v>
       </c>
-      <c r="C7" t="n">
-        <v>-761.8876991351958</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1640.609052114338</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1070,12 +1024,6 @@
       <c r="B8" t="n">
         <v>512</v>
       </c>
-      <c r="C8" t="n">
-        <v>-720.2692119819717</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1631.8493179123</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1084,12 +1032,6 @@
       <c r="B9" t="n">
         <v>528</v>
       </c>
-      <c r="C9" t="n">
-        <v>-659.8596754552813</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1680.060909520509</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1098,12 +1040,6 @@
       <c r="B10" t="n">
         <v>543</v>
       </c>
-      <c r="C10" t="n">
-        <v>-597.6258520057889</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1696.780504689848</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1112,12 +1048,6 @@
       <c r="B11" t="n">
         <v>559</v>
       </c>
-      <c r="C11" t="n">
-        <v>-589.8019638023063</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1721.085149268527</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1126,12 +1056,6 @@
       <c r="B12" t="n">
         <v>590</v>
       </c>
-      <c r="C12" t="n">
-        <v>-535.5977978940734</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1717.572959055443</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1140,12 +1064,6 @@
       <c r="B13" t="n">
         <v>622</v>
       </c>
-      <c r="C13" t="n">
-        <v>-552.3352765625763</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1782.389930911799</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1154,12 +1072,6 @@
       <c r="B14" t="n">
         <v>637</v>
       </c>
-      <c r="C14" t="n">
-        <v>-527.5371134771304</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1854.33259916792</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1168,12 +1080,6 @@
       <c r="B15" t="n">
         <v>653</v>
       </c>
-      <c r="C15" t="n">
-        <v>-549.7928782102216</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1892.714336339296</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1182,12 +1088,6 @@
       <c r="B16" t="n">
         <v>700</v>
       </c>
-      <c r="C16" t="n">
-        <v>-498.1770960548546</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1840.761390149699</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1196,12 +1096,6 @@
       <c r="B17" t="n">
         <v>716</v>
       </c>
-      <c r="C17" t="n">
-        <v>-439.3413684617729</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1894.444409186503</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1210,12 +1104,6 @@
       <c r="B18" t="n">
         <v>763</v>
       </c>
-      <c r="C18" t="n">
-        <v>-436.3558299955432</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1953.595628714323</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1224,12 +1112,6 @@
       <c r="B19" t="n">
         <v>778</v>
       </c>
-      <c r="C19" t="n">
-        <v>-472.0487298613351</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1918.84688780884</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1238,12 +1120,6 @@
       <c r="B20" t="n">
         <v>810</v>
       </c>
-      <c r="C20" t="n">
-        <v>-380.0397804217156</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2039.543423888914</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1252,12 +1128,6 @@
       <c r="B21" t="n">
         <v>825</v>
       </c>
-      <c r="C21" t="n">
-        <v>-274.8470340821949</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2002.807131539005</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1266,12 +1136,6 @@
       <c r="B22" t="n">
         <v>904</v>
       </c>
-      <c r="C22" t="n">
-        <v>-297.9893707824098</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2110.525780365101</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1280,12 +1144,6 @@
       <c r="B23" t="n">
         <v>919</v>
       </c>
-      <c r="C23" t="n">
-        <v>-330.7529839421145</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2186.822045832304</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1294,12 +1152,6 @@
       <c r="B24" t="n">
         <v>935</v>
       </c>
-      <c r="C24" t="n">
-        <v>-291.7640996144528</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2052.028887756309</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1308,12 +1160,6 @@
       <c r="B25" t="n">
         <v>982</v>
       </c>
-      <c r="C25" t="n">
-        <v>-264.5399778220923</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2248.079922640864</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1322,12 +1168,6 @@
       <c r="B26" t="n">
         <v>1013</v>
       </c>
-      <c r="C26" t="n">
-        <v>-167.2895076339827</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2153.783564261344</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1336,12 +1176,6 @@
       <c r="B27" t="n">
         <v>1029</v>
       </c>
-      <c r="C27" t="n">
-        <v>-205.0344720615607</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2200.154585881031</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1350,12 +1184,6 @@
       <c r="B28" t="n">
         <v>1045</v>
       </c>
-      <c r="C28" t="n">
-        <v>-87.20661232785304</v>
-      </c>
-      <c r="D28" t="n">
-        <v>2222.767845681699</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1364,12 +1192,6 @@
       <c r="B29" t="n">
         <v>1060</v>
       </c>
-      <c r="C29" t="n">
-        <v>-189.7301637737038</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2291.262906912455</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1378,12 +1200,6 @@
       <c r="B30" t="n">
         <v>1076</v>
       </c>
-      <c r="C30" t="n">
-        <v>-140.5081595095018</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2189.041171659709</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1392,12 +1208,6 @@
       <c r="B31" t="n">
         <v>1092</v>
       </c>
-      <c r="C31" t="n">
-        <v>-73.56573006288451</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2167.566010471062</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1406,12 +1216,6 @@
       <c r="B32" t="n">
         <v>1248</v>
       </c>
-      <c r="C32" t="n">
-        <v>58.35219753331198</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2479.529198646418</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1420,12 +1224,6 @@
       <c r="B33" t="n">
         <v>1310</v>
       </c>
-      <c r="C33" t="n">
-        <v>187.40071793926</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2556.941094270876</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1434,12 +1232,6 @@
       <c r="B34" t="n">
         <v>1326</v>
       </c>
-      <c r="C34" t="n">
-        <v>145.6540288378479</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2506.634151022301</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1448,12 +1240,6 @@
       <c r="B35" t="n">
         <v>1341</v>
       </c>
-      <c r="C35" t="n">
-        <v>192.7501080314793</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2488.129343979892</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1462,12 +1248,6 @@
       <c r="B36" t="n">
         <v>1388</v>
       </c>
-      <c r="C36" t="n">
-        <v>274.6299040233379</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2580.485654188221</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1476,12 +1256,6 @@
       <c r="B37" t="n">
         <v>1404</v>
       </c>
-      <c r="C37" t="n">
-        <v>190.5993138662529</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2621.639460482415</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1490,12 +1264,6 @@
       <c r="B38" t="n">
         <v>1419</v>
       </c>
-      <c r="C38" t="n">
-        <v>255.6076049487691</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2623.370875414723</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1504,12 +1272,6 @@
       <c r="B39" t="n">
         <v>1435</v>
       </c>
-      <c r="C39" t="n">
-        <v>278.2330286704495</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2594.952817284706</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1518,12 +1280,6 @@
       <c r="B40" t="n">
         <v>1622</v>
       </c>
-      <c r="C40" t="n">
-        <v>467.5923805782527</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2857.097620684582</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1532,12 +1288,6 @@
       <c r="B41" t="n">
         <v>1654</v>
       </c>
-      <c r="C41" t="n">
-        <v>464.2780325035035</v>
-      </c>
-      <c r="D41" t="n">
-        <v>2865.551284928545</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1546,12 +1296,6 @@
       <c r="B42" t="n">
         <v>1685</v>
       </c>
-      <c r="C42" t="n">
-        <v>468.0321383331052</v>
-      </c>
-      <c r="D42" t="n">
-        <v>2849.571089929602</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1560,12 +1304,6 @@
       <c r="B43" t="n">
         <v>1700</v>
       </c>
-      <c r="C43" t="n">
-        <v>489.9516229804909</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2951.494481923686</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1574,12 +1312,6 @@
       <c r="B44" t="n">
         <v>1716</v>
       </c>
-      <c r="C44" t="n">
-        <v>555.8234793178901</v>
-      </c>
-      <c r="D44" t="n">
-        <v>2854.569590156489</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1588,12 +1320,6 @@
       <c r="B45" t="n">
         <v>1732</v>
       </c>
-      <c r="C45" t="n">
-        <v>472.6633471411058</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2944.281590167745</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1602,12 +1328,6 @@
       <c r="B46" t="n">
         <v>1747</v>
       </c>
-      <c r="C46" t="n">
-        <v>615.501036983047</v>
-      </c>
-      <c r="D46" t="n">
-        <v>2902.066741142262</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1616,12 +1336,6 @@
       <c r="B47" t="n">
         <v>1763</v>
       </c>
-      <c r="C47" t="n">
-        <v>561.5449850820019</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2911.122980101627</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1630,12 +1344,6 @@
       <c r="B48" t="n">
         <v>1779</v>
       </c>
-      <c r="C48" t="n">
-        <v>567.9100487896283</v>
-      </c>
-      <c r="D48" t="n">
-        <v>2889.664880704264</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1644,12 +1352,6 @@
       <c r="B49" t="n">
         <v>1794</v>
       </c>
-      <c r="C49" t="n">
-        <v>576.4865395978796</v>
-      </c>
-      <c r="D49" t="n">
-        <v>2993.936559037046</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1657,12 +1359,6 @@
       </c>
       <c r="B50" t="n">
         <v>1810</v>
-      </c>
-      <c r="C50" t="n">
-        <v>591.3628818249186</v>
-      </c>
-      <c r="D50" t="n">
-        <v>2964.561149508793</v>
       </c>
     </row>
   </sheetData>
